--- a/Sprint1.xlsx
+++ b/Sprint1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21075" windowHeight="12135"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="25215" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -137,7 +137,7 @@
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +161,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1" tint="0.249977111117893"/>
       <name val="Cambria"/>
       <family val="2"/>
@@ -178,6 +171,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -291,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -309,58 +303,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -386,107 +328,226 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="9" fillId="0" borderId="7">
+    <xf numFmtId="5" fontId="8" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -500,68 +561,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Title 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -858,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J37"/>
+  <dimension ref="B1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,558 +877,538 @@
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.4">
-      <c r="B3" s="3"/>
-      <c r="C3" s="18" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="30.75" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" ht="30" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="24"/>
+    </row>
     <row r="6" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="19">
-        <v>1.2</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="19">
-        <v>1.4</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="B12" s="23">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-    </row>
-    <row r="14" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27">
-        <v>2</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2.1</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="19">
-        <v>2.5</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="19">
-        <v>2.7</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
+      <c r="B21" s="23">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="19">
-        <v>2.9</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27">
-        <v>3</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="19">
-        <v>3.1</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="19">
-        <v>3.2</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="19">
-        <v>3.3</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="19">
-        <v>3.4</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
+      <c r="B26" s="23">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27">
-        <v>4</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="19">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-    </row>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
